--- a/data/trans_orig/Q45B-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>2912</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7880</v>
+        <v>8041</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004985118134293261</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001450404699668512</v>
+        <v>0.001457095544376848</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01349057988633222</v>
+        <v>0.01376562971938518</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>2877</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7770</v>
+        <v>7572</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003118899856511735</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.000865537571512126</v>
+        <v>0.0008692953312892721</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.008424773065742991</v>
+        <v>0.008209452869607073</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -785,19 +785,19 @@
         <v>5789</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2089</v>
+        <v>2051</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12675</v>
+        <v>12416</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003842533307706616</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001386638287071069</v>
+        <v>0.001361159805913406</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00841344823149956</v>
+        <v>0.008241775483878824</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>6807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2495</v>
+        <v>2560</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14604</v>
+        <v>15429</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0116533566020214</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004271394969114817</v>
+        <v>0.004382543347316809</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02500118071331528</v>
+        <v>0.02641237697863506</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -835,19 +835,19 @@
         <v>48088</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36657</v>
+        <v>34797</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62619</v>
+        <v>62291</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05213706024264053</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03974392361301703</v>
+        <v>0.03772754105414208</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06789233253075216</v>
+        <v>0.06753589710670653</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>53</v>
@@ -856,19 +856,19 @@
         <v>54895</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41795</v>
+        <v>42294</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>71627</v>
+        <v>72137</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03643934549437595</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02774353940126824</v>
+        <v>0.02807510995103393</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04754586602792874</v>
+        <v>0.04788463873853479</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>574422</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>566350</v>
+        <v>564799</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>579739</v>
+        <v>579671</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9833615252636854</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9695429878038094</v>
+        <v>0.9668879950833544</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9924642711200276</v>
+        <v>0.9923470987299567</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>835</v>
@@ -906,19 +906,19 @@
         <v>871369</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>857261</v>
+        <v>856857</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>883483</v>
+        <v>884565</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9447440399008478</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9294489777247145</v>
+        <v>0.9290109882328181</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9578780667251859</v>
+        <v>0.9590512726539714</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1400</v>
@@ -927,19 +927,19 @@
         <v>1445790</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1428486</v>
+        <v>1427859</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1460023</v>
+        <v>1459054</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9597181211979174</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9482311111750791</v>
+        <v>0.9478152518591616</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9691655071461911</v>
+        <v>0.9685226373864385</v>
       </c>
     </row>
     <row r="7">
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4387</v>
+        <v>4372</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0008081637730945787</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.00407006053899512</v>
+        <v>0.004056050322780418</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1052,19 +1052,19 @@
         <v>2909</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8120</v>
+        <v>7933</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.002750434047236547</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0008851712077393348</v>
+        <v>0.0008877494241423152</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.007677956853210427</v>
+        <v>0.007501179734313387</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1073,19 +1073,19 @@
         <v>3780</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>940</v>
+        <v>959</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9024</v>
+        <v>9697</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.001770041553762588</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.000440253406824854</v>
+        <v>0.0004492940229725854</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.004225821373847872</v>
+        <v>0.004541158687617339</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>18173</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11254</v>
+        <v>11076</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27374</v>
+        <v>29095</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01685964941391093</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01044069789203637</v>
+        <v>0.01027552352855683</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02539598208148927</v>
+        <v>0.02699226991192585</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>70</v>
@@ -1123,19 +1123,19 @@
         <v>72765</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>57577</v>
+        <v>56847</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>91803</v>
+        <v>90916</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06880622802858231</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05444468803529614</v>
+        <v>0.05375439796985663</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08680813749810981</v>
+        <v>0.08596912187459804</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>88</v>
@@ -1144,19 +1144,19 @@
         <v>90938</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>73941</v>
+        <v>73379</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>111940</v>
+        <v>113235</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04258534805451328</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03462589678672922</v>
+        <v>0.03436243754599823</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05242007848600981</v>
+        <v>0.05302692806666431</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>1058850</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1049080</v>
+        <v>1047513</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1065926</v>
+        <v>1066222</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9823321868129945</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.973268209245471</v>
+        <v>0.9718147230939453</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9888967385021198</v>
+        <v>0.989171106606699</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>955</v>
@@ -1194,19 +1194,19 @@
         <v>981864</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>962809</v>
+        <v>963898</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>997769</v>
+        <v>998687</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9284433379241811</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9104248736340197</v>
+        <v>0.911455100115707</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9434832947105968</v>
+        <v>0.9443513254877877</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1991</v>
@@ -1215,19 +1215,19 @@
         <v>2040714</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2020369</v>
+        <v>2019505</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2057701</v>
+        <v>2059013</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9556446103917241</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.94611718856896</v>
+        <v>0.9457124502137665</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9635992516868639</v>
+        <v>0.9642137374834878</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>3579</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11827</v>
+        <v>12394</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.003191169278894485</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0007386316254324017</v>
+        <v>0.0007348808950274388</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01054489976084571</v>
+        <v>0.01105060939159479</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1343,16 +1343,16 @@
         <v>1019</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9984</v>
+        <v>9050</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.003935699881546437</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001025424305604671</v>
+        <v>0.001025039000300044</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01004480852286198</v>
+        <v>0.009104952200107859</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1361,19 +1361,19 @@
         <v>7491</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2965</v>
+        <v>3369</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15380</v>
+        <v>14947</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003540971501286495</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001401310604240962</v>
+        <v>0.001592452327620819</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.007270156182663579</v>
+        <v>0.007065316230025928</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>20059</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11723</v>
+        <v>12524</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29700</v>
+        <v>29952</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01788432870915359</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01045205686140985</v>
+        <v>0.01116645753780881</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02648022500989047</v>
+        <v>0.02670495494026444</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -1411,19 +1411,19 @@
         <v>77737</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61904</v>
+        <v>62428</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95144</v>
+        <v>95887</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07821047211212021</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06228095065432136</v>
+        <v>0.06280845165922444</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09572414907368905</v>
+        <v>0.09647159737943886</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>95</v>
@@ -1432,19 +1432,19 @@
         <v>97795</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77157</v>
+        <v>79348</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>118472</v>
+        <v>119039</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04622731280615728</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03647180500796773</v>
+        <v>0.03750735391526713</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05600117839375885</v>
+        <v>0.05626917054537448</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>1097956</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1086761</v>
+        <v>1086287</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1107453</v>
+        <v>1106278</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9789245020119519</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9689432487280781</v>
+        <v>0.9685208961248117</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9873924893763724</v>
+        <v>0.986344267628072</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>903</v>
@@ -1482,19 +1482,19 @@
         <v>912292</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>895145</v>
+        <v>891606</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>928856</v>
+        <v>927271</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9178538280063334</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9006030353917964</v>
+        <v>0.8970419089228393</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9345188272544261</v>
+        <v>0.9329246607055423</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1983</v>
@@ -1503,19 +1503,19 @@
         <v>2010248</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1989317</v>
+        <v>1987821</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2030921</v>
+        <v>2029412</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9502317156925563</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9403379165959043</v>
+        <v>0.939630922785667</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9600038817798409</v>
+        <v>0.9592908729576242</v>
       </c>
     </row>
     <row r="15">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10446</v>
+        <v>11996</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006774148116309294</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02335930463467217</v>
+        <v>0.0268246774100073</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1628,19 +1628,19 @@
         <v>2785</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7605</v>
+        <v>8689</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008164648458895</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002153686846165225</v>
+        <v>0.002165709667256011</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02229026196191429</v>
+        <v>0.02546787203958266</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1649,19 +1649,19 @@
         <v>5815</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2255</v>
+        <v>2037</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14308</v>
+        <v>13852</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007375880633891501</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002860667486331121</v>
+        <v>0.00258415193964559</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01814850948799382</v>
+        <v>0.01757040584706272</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>10264</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4872</v>
+        <v>5146</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18912</v>
+        <v>19319</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02295115763411739</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01089509604138118</v>
+        <v>0.01150668356395664</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04228933472229721</v>
+        <v>0.04319958815597415</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -1699,19 +1699,19 @@
         <v>48883</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37051</v>
+        <v>37820</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62273</v>
+        <v>63323</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1432859288880879</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1086032150062124</v>
+        <v>0.1108568365533538</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1825345583928792</v>
+        <v>0.1856113802333372</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>59</v>
@@ -1720,19 +1720,19 @@
         <v>59147</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>44625</v>
+        <v>45740</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>74405</v>
+        <v>74591</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07502546688936124</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05660554697436963</v>
+        <v>0.05801977241608008</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09437939296082308</v>
+        <v>0.09461605825365609</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>433907</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>424319</v>
+        <v>423557</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>440340</v>
+        <v>440307</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9702746942495734</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9488339199681449</v>
+        <v>0.9471319005755581</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.984659840687935</v>
+        <v>0.9845869866076121</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>287</v>
@@ -1770,19 +1770,19 @@
         <v>289489</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>275778</v>
+        <v>274965</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>302185</v>
+        <v>301035</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8485494226530171</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8083582272323929</v>
+        <v>0.8059763398440917</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8857636202712539</v>
+        <v>0.882392928471927</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>711</v>
@@ -1791,19 +1791,19 @@
         <v>723396</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>707319</v>
+        <v>706847</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>738891</v>
+        <v>737416</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9175986524767472</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.897204951074078</v>
+        <v>0.896606597334179</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9372526445410434</v>
+        <v>0.9353816937504563</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>10392</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4800</v>
+        <v>5067</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19376</v>
+        <v>21033</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003216425773409028</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001485812297110266</v>
+        <v>0.001568323325641059</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.005997254469498422</v>
+        <v>0.006510167409940534</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -1916,19 +1916,19 @@
         <v>12483</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7041</v>
+        <v>6754</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21221</v>
+        <v>20842</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003765536851346396</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002124048646547305</v>
+        <v>0.002037378605260421</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.006401555604137736</v>
+        <v>0.006287347938112791</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -1937,19 +1937,19 @@
         <v>22874</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>15188</v>
+        <v>14144</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>34851</v>
+        <v>34630</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003494510442416339</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002320234245216151</v>
+        <v>0.002160809672273223</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005324245771190515</v>
+        <v>0.005290358158814075</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>55303</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>41172</v>
+        <v>40145</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>72615</v>
+        <v>70710</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01711722518396974</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01274333016352159</v>
+        <v>0.01242564638826831</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.022475617506605</v>
+        <v>0.02188612089633554</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>241</v>
@@ -1987,19 +1987,19 @@
         <v>247473</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>219919</v>
+        <v>219397</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>280824</v>
+        <v>276353</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07465306417127113</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06634120429343998</v>
+        <v>0.06618378192761031</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0847138991928206</v>
+        <v>0.08336511322158685</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>295</v>
@@ -2008,19 +2008,19 @@
         <v>302775</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>268651</v>
+        <v>270581</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>337252</v>
+        <v>338261</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04625492679607709</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04104176884941563</v>
+        <v>0.0413365440851048</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05152193426824567</v>
+        <v>0.0516760090465531</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>3165134</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3146587</v>
+        <v>3147010</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3180731</v>
+        <v>3181157</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9796663490426212</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9739256526239527</v>
+        <v>0.97405662060876</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9844936714832481</v>
+        <v>0.9846255371490906</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2980</v>
@@ -2058,19 +2058,19 @@
         <v>3055014</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3020258</v>
+        <v>3024312</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3084515</v>
+        <v>3083188</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9215813989773824</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9110967714652212</v>
+        <v>0.9123199867804335</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.930480806095074</v>
+        <v>0.9300805871520623</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6085</v>
@@ -2079,19 +2079,19 @@
         <v>6220148</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6185256</v>
+        <v>6185177</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6252906</v>
+        <v>6253154</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9502505627615065</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9449200515239938</v>
+        <v>0.9449079711522582</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9552549158436265</v>
+        <v>0.9552927747311459</v>
       </c>
     </row>
     <row r="23">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8438</v>
+        <v>7689</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002261279167600335</v>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008098213211196529</v>
+        <v>0.007379014662460024</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2444,19 +2444,19 @@
         <v>7131</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2945</v>
+        <v>3051</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15470</v>
+        <v>16545</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006398324572644237</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002642381397108568</v>
+        <v>0.002737567500886827</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01388168382601904</v>
+        <v>0.01484642256282037</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -2465,19 +2465,19 @@
         <v>9487</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4089</v>
+        <v>4337</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18017</v>
+        <v>21159</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004399313901229245</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001896053504375212</v>
+        <v>0.002011208007883211</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008355252580538269</v>
+        <v>0.009812196508687074</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>31268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21749</v>
+        <v>21023</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43778</v>
+        <v>44720</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03000798599940977</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02087263063436443</v>
+        <v>0.0201761013901397</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04201450346591439</v>
+        <v>0.04291857931475865</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>55</v>
@@ -2515,19 +2515,19 @@
         <v>58376</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44518</v>
+        <v>43513</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>75748</v>
+        <v>75630</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05238150026941123</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03994613332987056</v>
+        <v>0.03904454705210399</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06796934429337141</v>
+        <v>0.06786363697324856</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>85</v>
@@ -2536,19 +2536,19 @@
         <v>89644</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>71959</v>
+        <v>72412</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>111634</v>
+        <v>110681</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04157067046119598</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03336962383369587</v>
+        <v>0.03357987257564466</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05176847516012044</v>
+        <v>0.05132637366336537</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>1008350</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>996151</v>
+        <v>994645</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1018714</v>
+        <v>1019042</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9677307348329899</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9560226269704609</v>
+        <v>0.9545774432805983</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.977676629413469</v>
+        <v>0.977991785435412</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>965</v>
@@ -2586,19 +2586,19 @@
         <v>1048932</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1030769</v>
+        <v>1031067</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1064841</v>
+        <v>1063125</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9412201751579445</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9249218303592098</v>
+        <v>0.9251895100424838</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9554948959560819</v>
+        <v>0.9539551445327381</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1909</v>
@@ -2607,19 +2607,19 @@
         <v>2057283</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2035474</v>
+        <v>2034808</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2076603</v>
+        <v>2074798</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9540300156375747</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9439166557580924</v>
+        <v>0.9436078772492752</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9629893291914127</v>
+        <v>0.9621522398072758</v>
       </c>
     </row>
     <row r="7">
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6690</v>
+        <v>6416</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002107454836963876</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.006896229826652652</v>
+        <v>0.006613435011011331</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -2732,19 +2732,19 @@
         <v>10067</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4943</v>
+        <v>5283</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18213</v>
+        <v>18531</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009251565632927334</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004542163156970201</v>
+        <v>0.004855052950244973</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01673724712196386</v>
+        <v>0.01703009392500522</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -2753,19 +2753,19 @@
         <v>12112</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6098</v>
+        <v>6712</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20178</v>
+        <v>20402</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.005884420991825196</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002962655832234051</v>
+        <v>0.003261106028944464</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.009803250681110038</v>
+        <v>0.009912270751684684</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>15868</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9733</v>
+        <v>9806</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24763</v>
+        <v>26662</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01635711019806476</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01003291452018551</v>
+        <v>0.01010850781300849</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02552619362224457</v>
+        <v>0.0274838174186379</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>66</v>
@@ -2803,19 +2803,19 @@
         <v>66601</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>52310</v>
+        <v>52383</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>83862</v>
+        <v>84417</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06120552240250322</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04807230004221414</v>
+        <v>0.04813936121852176</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07706738254822004</v>
+        <v>0.07757730685042694</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>82</v>
@@ -2824,19 +2824,19 @@
         <v>82469</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>65154</v>
+        <v>66519</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>100093</v>
+        <v>102171</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04006767962136404</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0316549912154271</v>
+        <v>0.03231845712399205</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04862999720491035</v>
+        <v>0.04963993610200012</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>952177</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>942034</v>
+        <v>941281</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>959098</v>
+        <v>958500</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9815354349649714</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.971080288879259</v>
+        <v>0.9703040073112627</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9886704188437199</v>
+        <v>0.9880539566603093</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>938</v>
@@ -2874,19 +2874,19 @@
         <v>1011492</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>992446</v>
+        <v>993523</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1027389</v>
+        <v>1027901</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9295429119645694</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9120397043630266</v>
+        <v>0.9130290565736584</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9441515343213869</v>
+        <v>0.9446222458677024</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1838</v>
@@ -2895,19 +2895,19 @@
         <v>1963669</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1946119</v>
+        <v>1941252</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1982281</v>
+        <v>1981117</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9540478993868108</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9455212252239421</v>
+        <v>0.9431564592176246</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.963090325781326</v>
+        <v>0.9625248458260838</v>
       </c>
     </row>
     <row r="11">
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5882</v>
+        <v>6444</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.002198388931430664</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.006669730312874513</v>
+        <v>0.007306677297390827</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -3020,19 +3020,19 @@
         <v>8986</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4036</v>
+        <v>4080</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15398</v>
+        <v>15947</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01028307904163638</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004618944297788665</v>
+        <v>0.00466858085739015</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01762026939648263</v>
+        <v>0.01824805938096617</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -3041,19 +3041,19 @@
         <v>10925</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5208</v>
+        <v>5921</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18078</v>
+        <v>19779</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.006222266641358063</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.002966365838278703</v>
+        <v>0.003372533669169839</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01029625713465129</v>
+        <v>0.01126500062310098</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>14383</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8062</v>
+        <v>8007</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24594</v>
+        <v>23877</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01630920413548477</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009141964972285293</v>
+        <v>0.00907970456069843</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02788714731251053</v>
+        <v>0.02707434951263139</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -3091,19 +3091,19 @@
         <v>69660</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55107</v>
+        <v>54539</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87886</v>
+        <v>87341</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07971380908138957</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06306050401540758</v>
+        <v>0.06241084478955598</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1005701197671375</v>
+        <v>0.09994630291017935</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -3112,19 +3112,19 @@
         <v>84043</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66256</v>
+        <v>65655</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104652</v>
+        <v>103479</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0478666754882225</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0377360185565364</v>
+        <v>0.0373935921252115</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05960433232263859</v>
+        <v>0.05893662087289404</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>865575</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>855289</v>
+        <v>855567</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>872200</v>
+        <v>872737</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9814924069330846</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9698286995533407</v>
+        <v>0.970143771117484</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9890038241795436</v>
+        <v>0.9896134918545937</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>745</v>
@@ -3162,19 +3162,19 @@
         <v>795230</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>776899</v>
+        <v>777177</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>810287</v>
+        <v>811293</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.910003111876974</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8890265197510649</v>
+        <v>0.8893441645033354</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9272337046093971</v>
+        <v>0.9283847954027947</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1557</v>
@@ -3183,19 +3183,19 @@
         <v>1660805</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1640083</v>
+        <v>1638533</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1679042</v>
+        <v>1679925</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9459110578704194</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9341087911618958</v>
+        <v>0.9332258424200284</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9562979905400514</v>
+        <v>0.956800561728737</v>
       </c>
     </row>
     <row r="15">
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4414</v>
+        <v>4383</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001746588908970815</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008791221011458432</v>
+        <v>0.008730784895558976</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3308,19 +3308,19 @@
         <v>6783</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2830</v>
+        <v>2849</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15506</v>
+        <v>14724</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01498191807540267</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006251446057592786</v>
+        <v>0.006293537112110873</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03424855356091586</v>
+        <v>0.03252122862729562</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -3329,19 +3329,19 @@
         <v>7660</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3720</v>
+        <v>3655</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16057</v>
+        <v>15912</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008022404910232707</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003896262967365785</v>
+        <v>0.003828277102705671</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01681693441392086</v>
+        <v>0.0166651801881086</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>16566</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9471</v>
+        <v>9354</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29830</v>
+        <v>28315</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03299618177444007</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01886432520948455</v>
+        <v>0.01863092243946524</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05941542841944632</v>
+        <v>0.05639781707571339</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -3379,19 +3379,19 @@
         <v>35494</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24824</v>
+        <v>24437</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48733</v>
+        <v>49361</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07839863186559411</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05483208281339536</v>
+        <v>0.05397546839199408</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1076407330701532</v>
+        <v>0.1090289383572548</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>46</v>
@@ -3400,19 +3400,19 @@
         <v>52060</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38418</v>
+        <v>39185</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>71900</v>
+        <v>69403</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05452473004063903</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04023745303550609</v>
+        <v>0.04103985264796957</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07530380572967685</v>
+        <v>0.07268871122573176</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>484614</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>470958</v>
+        <v>472931</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>492173</v>
+        <v>491715</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9652572293165891</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9380564113078879</v>
+        <v>0.9419873213602068</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9803125536596794</v>
+        <v>0.9794004085140683</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>374</v>
@@ -3450,19 +3450,19 @@
         <v>410459</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>394856</v>
+        <v>395306</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>421675</v>
+        <v>421830</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9066194500590032</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8721545779237533</v>
+        <v>0.8731490638642017</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9313919287156872</v>
+        <v>0.9317354274033333</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>819</v>
@@ -3471,19 +3471,19 @@
         <v>895073</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>876182</v>
+        <v>876331</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>909835</v>
+        <v>909061</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9374528650491283</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9176672771688</v>
+        <v>0.9178233926236404</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9529134824522723</v>
+        <v>0.9521025747090471</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>7216</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2815</v>
+        <v>3043</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14594</v>
+        <v>14073</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002124916489235522</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0008289790295387829</v>
+        <v>0.0008960768240386072</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.004297485966266132</v>
+        <v>0.004143834304776157</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -3596,19 +3596,19 @@
         <v>32967</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22951</v>
+        <v>22886</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48090</v>
+        <v>46406</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009341099690264369</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006503027607882077</v>
+        <v>0.006484663560124978</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01362637406906341</v>
+        <v>0.01314900496471382</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>38</v>
@@ -3617,19 +3617,19 @@
         <v>40183</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28699</v>
+        <v>29089</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>54843</v>
+        <v>55461</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005802403102645049</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004144095751616525</v>
+        <v>0.00420046370016752</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007919288895133589</v>
+        <v>0.008008494715344944</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>78084</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>63159</v>
+        <v>61890</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>98954</v>
+        <v>97793</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02299293383758538</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01859785884160837</v>
+        <v>0.01822427738036477</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02913835145538706</v>
+        <v>0.02879631343444182</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>218</v>
@@ -3667,19 +3667,19 @@
         <v>230131</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>200245</v>
+        <v>203323</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>261545</v>
+        <v>261953</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06520756023660672</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05673918177805642</v>
+        <v>0.05761149544064679</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07410859786477172</v>
+        <v>0.07422433988759911</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>291</v>
@@ -3688,19 +3688,19 @@
         <v>308216</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>275869</v>
+        <v>273965</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>345649</v>
+        <v>345189</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04450620742664165</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03983537191266601</v>
+        <v>0.0395603940472267</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04991151377996949</v>
+        <v>0.04984514547797647</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>3310716</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3287778</v>
+        <v>3289758</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3326395</v>
+        <v>3327844</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9748821496731791</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9681276833576896</v>
+        <v>0.9687106753553461</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9794990297467175</v>
+        <v>0.9799255455948523</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3022</v>
@@ -3738,19 +3738,19 @@
         <v>3266113</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3231774</v>
+        <v>3230290</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3297563</v>
+        <v>3296088</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9254513400731289</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9157212894948135</v>
+        <v>0.9153009261956018</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9343626524433477</v>
+        <v>0.9339448103986683</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6123</v>
@@ -3759,19 +3759,19 @@
         <v>6576830</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6537990</v>
+        <v>6536548</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6611490</v>
+        <v>6614087</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9496913894707133</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9440827908931219</v>
+        <v>0.9438745817022669</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9546962893752226</v>
+        <v>0.9550712227230447</v>
       </c>
     </row>
     <row r="23">
@@ -4116,19 +4116,19 @@
         <v>4682</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1764</v>
+        <v>1801</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10333</v>
+        <v>10387</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003724757915522072</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00140351761086315</v>
+        <v>0.001433017039492221</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.008220544237576346</v>
+        <v>0.008263269675815504</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4137,19 +4137,19 @@
         <v>4682</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1879</v>
+        <v>1834</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10421</v>
+        <v>10409</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001967780048656871</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0007895937999587167</v>
+        <v>0.0007708972605711059</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004379899903150111</v>
+        <v>0.004374971805707676</v>
       </c>
     </row>
     <row r="5">
@@ -4166,19 +4166,19 @@
         <v>10830</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5876</v>
+        <v>5740</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18825</v>
+        <v>18680</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009650020296704514</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005235989628657009</v>
+        <v>0.005114004214083745</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01677354226612305</v>
+        <v>0.01664398184789989</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -4187,19 +4187,19 @@
         <v>26304</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17577</v>
+        <v>17220</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37689</v>
+        <v>36774</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02092644070526451</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01398347378204223</v>
+        <v>0.01369941160849523</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02998379945877165</v>
+        <v>0.02925539677292895</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -4208,19 +4208,19 @@
         <v>37135</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26483</v>
+        <v>26893</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49431</v>
+        <v>50734</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01560732426208756</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01113072384271925</v>
+        <v>0.01130267451138928</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02077531693542356</v>
+        <v>0.02132303974342396</v>
       </c>
     </row>
     <row r="6">
@@ -4237,19 +4237,19 @@
         <v>1111496</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1103501</v>
+        <v>1103646</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1116450</v>
+        <v>1116586</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9903499797032955</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9832264577338768</v>
+        <v>0.9833560181521004</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.994764010371343</v>
+        <v>0.9948859957859165</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1154</v>
@@ -4258,19 +4258,19 @@
         <v>1225997</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1213125</v>
+        <v>1215013</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1235222</v>
+        <v>1236288</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9753488013792134</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9651083666891055</v>
+        <v>0.9666108647611754</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9826881007171171</v>
+        <v>0.9835358130365338</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2204</v>
@@ -4279,19 +4279,19 @@
         <v>2337492</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2323719</v>
+        <v>2323523</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2349029</v>
+        <v>2348835</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9824248956892556</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9766361545924498</v>
+        <v>0.976553786279996</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9872736010746073</v>
+        <v>0.9871920611716939</v>
       </c>
     </row>
     <row r="7">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5259</v>
+        <v>5768</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001055191609232376</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.00578628439848877</v>
+        <v>0.006346833675965523</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -4404,19 +4404,19 @@
         <v>4095</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>983</v>
+        <v>1150</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9824</v>
+        <v>10196</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004100501508646199</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0009842727302963486</v>
+        <v>0.001152036433262168</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.009838695441273838</v>
+        <v>0.01021039608598076</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -4425,19 +4425,19 @@
         <v>5054</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1976</v>
+        <v>1468</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11275</v>
+        <v>11965</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002649477861142632</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001035720998129893</v>
+        <v>0.0007696176680567064</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.00591143222692326</v>
+        <v>0.006273256278102269</v>
       </c>
     </row>
     <row r="9">
@@ -4454,19 +4454,19 @@
         <v>7791</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3729</v>
+        <v>3699</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14852</v>
+        <v>15127</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.008572689868181221</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.00410281487082847</v>
+        <v>0.004069789997885526</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01634222015475335</v>
+        <v>0.01664488679797302</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>26</v>
@@ -4475,19 +4475,19 @@
         <v>27701</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17803</v>
+        <v>18719</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>41704</v>
+        <v>39792</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02774061134667015</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01782847110035243</v>
+        <v>0.01874640455385013</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04176440629476687</v>
+        <v>0.0398494814315601</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>34</v>
@@ -4496,19 +4496,19 @@
         <v>35492</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>23684</v>
+        <v>25239</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>49140</v>
+        <v>49910</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01860751545251087</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01241679215516817</v>
+        <v>0.0132320412619856</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02576289531880386</v>
+        <v>0.02616667601731827</v>
       </c>
     </row>
     <row r="10">
@@ -4525,19 +4525,19 @@
         <v>900075</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>892892</v>
+        <v>892452</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>904967</v>
+        <v>904882</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9903721185225864</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9824689567151815</v>
+        <v>0.9819844644105323</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.995754753167237</v>
+        <v>0.9956610890773876</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>913</v>
@@ -4546,19 +4546,19 @@
         <v>966760</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>953675</v>
+        <v>954076</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>977862</v>
+        <v>976984</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9681588871446837</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9550555481652581</v>
+        <v>0.9554562410608362</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9792768263185162</v>
+        <v>0.9783978249424252</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1785</v>
@@ -4567,19 +4567,19 @@
         <v>1866835</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1852876</v>
+        <v>1851987</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1879284</v>
+        <v>1877903</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9787430066863465</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.971424419162857</v>
+        <v>0.9709586656562902</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9852699076676791</v>
+        <v>0.9845457336492082</v>
       </c>
     </row>
     <row r="11">
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5278</v>
+        <v>6965</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.001292519541229293</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.006444810508546692</v>
+        <v>0.008503648614755803</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -4692,19 +4692,19 @@
         <v>6034</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2567</v>
+        <v>2119</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12278</v>
+        <v>12545</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.00783636095246347</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003334396572493234</v>
+        <v>0.002752099439513401</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01594581994433603</v>
+        <v>0.01629215092229042</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -4713,19 +4713,19 @@
         <v>7092</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2974</v>
+        <v>2800</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13360</v>
+        <v>13241</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.004463494709110308</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001871782344214398</v>
+        <v>0.001761885255616996</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.00840791394034454</v>
+        <v>0.008332765958052444</v>
       </c>
     </row>
     <row r="13">
@@ -4742,19 +4742,19 @@
         <v>5199</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1948</v>
+        <v>1935</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11957</v>
+        <v>11991</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006348425204551337</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00237811949308093</v>
+        <v>0.002362852980442009</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01459966970850087</v>
+        <v>0.01464085781957847</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -4763,19 +4763,19 @@
         <v>32887</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24123</v>
+        <v>23723</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47497</v>
+        <v>44854</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04271196925299594</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03132909065257009</v>
+        <v>0.03081007947267777</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06168553819281632</v>
+        <v>0.05825380928408094</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -4784,19 +4784,19 @@
         <v>38087</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27909</v>
+        <v>26820</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51734</v>
+        <v>51705</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02396925186392145</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01756428189099424</v>
+        <v>0.01687843708872293</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03255789056523185</v>
+        <v>0.03253997772319717</v>
       </c>
     </row>
     <row r="14">
@@ -4813,19 +4813,19 @@
         <v>812745</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>806005</v>
+        <v>804977</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>816874</v>
+        <v>816181</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9923590552542194</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9841293004886987</v>
+        <v>0.9828739349219574</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.997400681621766</v>
+        <v>0.9965542946062868</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>687</v>
@@ -4834,19 +4834,19 @@
         <v>731058</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>717682</v>
+        <v>718338</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>741270</v>
+        <v>741597</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9494516697945405</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9320797703849768</v>
+        <v>0.9329319619965714</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.962714907979148</v>
+        <v>0.9631388896213355</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1464</v>
@@ -4855,19 +4855,19 @@
         <v>1543803</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1530295</v>
+        <v>1529804</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1554814</v>
+        <v>1556054</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9715672534269683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9630660849552087</v>
+        <v>0.9627572840709553</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9784971324208784</v>
+        <v>0.9792771096068534</v>
       </c>
     </row>
     <row r="15">
@@ -4972,19 +4972,19 @@
         <v>3880</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10198</v>
+        <v>9207</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007940815324543601</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001949386319950788</v>
+        <v>0.001944297727941649</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02087318984107514</v>
+        <v>0.01884421358760261</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -4993,19 +4993,19 @@
         <v>3880</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1020</v>
+        <v>935</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10243</v>
+        <v>9004</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003914509396043211</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001029024163520778</v>
+        <v>0.0009435297716250577</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01033466161219612</v>
+        <v>0.009084639604125573</v>
       </c>
     </row>
     <row r="17">
@@ -5022,19 +5022,19 @@
         <v>6057</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2037</v>
+        <v>2063</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13065</v>
+        <v>12219</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01205375289282036</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004052459822108263</v>
+        <v>0.004105898820620726</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02599830407068453</v>
+        <v>0.02431435115672031</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -5043,19 +5043,19 @@
         <v>18179</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11284</v>
+        <v>11294</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27730</v>
+        <v>28109</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0372075285335156</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02309509074777365</v>
+        <v>0.02311666141347014</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05675592158398334</v>
+        <v>0.05753175808956192</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -5064,19 +5064,19 @@
         <v>24237</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16075</v>
+        <v>15920</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35777</v>
+        <v>35185</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02445357420425775</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0162192726910789</v>
+        <v>0.01606298236333557</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03609718453088765</v>
+        <v>0.03549973224291844</v>
       </c>
     </row>
     <row r="18">
@@ -5093,19 +5093,19 @@
         <v>496482</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>489474</v>
+        <v>490320</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>500502</v>
+        <v>500476</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9879462471071796</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9740016959293157</v>
+        <v>0.9756856488432798</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9959475401778918</v>
+        <v>0.9958941011793794</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>432</v>
@@ -5114,19 +5114,19 @@
         <v>466526</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>456363</v>
+        <v>456215</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>474332</v>
+        <v>474226</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9548516561419408</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9340507780084694</v>
+        <v>0.9337469216446815</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.97082843508187</v>
+        <v>0.9706110513793083</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>893</v>
@@ -5135,19 +5135,19 @@
         <v>963009</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>950189</v>
+        <v>952008</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>971508</v>
+        <v>971820</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.971631916399699</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9586977475468185</v>
+        <v>0.9605329720837297</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9802073058212003</v>
+        <v>0.9805222411313297</v>
       </c>
     </row>
     <row r="19">
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7041</v>
+        <v>7010</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0006017733121987723</v>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.002100107406476819</v>
+        <v>0.00209094571673931</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -5260,19 +5260,19 @@
         <v>18690</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11470</v>
+        <v>11461</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28458</v>
+        <v>28248</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.005318608227085613</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003263875995445913</v>
+        <v>0.003261363562989155</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.008098287217345426</v>
+        <v>0.008038347516432049</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -5281,19 +5281,19 @@
         <v>20708</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13435</v>
+        <v>12863</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30511</v>
+        <v>31151</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003015627329408605</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001956491529424845</v>
+        <v>0.001873235389708747</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004443321642669436</v>
+        <v>0.004536466654383137</v>
       </c>
     </row>
     <row r="21">
@@ -5310,19 +5310,19 @@
         <v>29878</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20740</v>
+        <v>20193</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42893</v>
+        <v>41846</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.008911763140516738</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.006186086287664255</v>
+        <v>0.006023063298744963</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01279357554041015</v>
+        <v>0.01248136745477708</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>105</v>
@@ -5331,19 +5331,19 @@
         <v>105071</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>86629</v>
+        <v>85718</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>125404</v>
+        <v>127171</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02989983532405543</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0246518167097486</v>
+        <v>0.02439255515015687</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03568578003995891</v>
+        <v>0.03618871131335517</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>135</v>
@@ -5352,19 +5352,19 @@
         <v>134949</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>114133</v>
+        <v>113561</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>159997</v>
+        <v>155721</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01965247026041819</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01662095189786612</v>
+        <v>0.01653767979125005</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02330009835108474</v>
+        <v>0.02267737313009601</v>
       </c>
     </row>
     <row r="22">
@@ -5381,19 +5381,19 @@
         <v>3320797</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3307402</v>
+        <v>3308232</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3330738</v>
+        <v>3330776</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9904864635472845</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9864912586146549</v>
+        <v>0.9867387349219132</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9934515229735075</v>
+        <v>0.9934629712048073</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3186</v>
@@ -5402,19 +5402,19 @@
         <v>3390342</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3368384</v>
+        <v>3366771</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3409408</v>
+        <v>3409183</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.964781556448859</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9585331787439455</v>
+        <v>0.9580742082117493</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9702071838758493</v>
+        <v>0.9701431003387231</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6346</v>
@@ -5423,19 +5423,19 @@
         <v>6711138</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6683892</v>
+        <v>6688396</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6733410</v>
+        <v>6732631</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9773319024101732</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9733641831686279</v>
+        <v>0.9740200154321718</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9805753802080199</v>
+        <v>0.9804619626274499</v>
       </c>
     </row>
     <row r="23">
